--- a/lp_tenant_exporter_v2/split/tenants/esrin_config.xlsx
+++ b/lp_tenant_exporter_v2/split/tenants/esrin_config.xlsx
@@ -14,14 +14,16 @@
     <sheet name="Device" sheetId="5" r:id="rId5"/>
     <sheet name="DeviceFetcher" sheetId="6" r:id="rId6"/>
     <sheet name="DeviceGroups" sheetId="7" r:id="rId7"/>
-    <sheet name="Alert" sheetId="8" r:id="rId8"/>
+    <sheet name="User" sheetId="8" r:id="rId8"/>
+    <sheet name="UserGroup" sheetId="9" r:id="rId9"/>
+    <sheet name="Alert" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="690">
   <si>
     <t>policy_name</t>
   </si>
@@ -1733,150 +1735,285 @@
     <t>65d714a3bc253dd6610452a3 | 65d7121229b9e83bc200591c</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>usergroup_id</t>
+  </si>
+  <si>
+    <t>preferences</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f74</t>
+  </si>
+  <si>
+    <t>64ff36a25aaee58760df2766</t>
+  </si>
+  <si>
+    <t>650c151dfcc3084c80c082e5</t>
+  </si>
+  <si>
+    <t>65afefd2b079f715b02651c9</t>
+  </si>
+  <si>
+    <t>65bbc347d4f35cfb51a072ae</t>
+  </si>
+  <si>
+    <t>65bbc37bd4f35cfb51a072b4</t>
+  </si>
+  <si>
+    <t>Operator1</t>
+  </si>
+  <si>
+    <t>sc3</t>
+  </si>
+  <si>
+    <t>pentest</t>
+  </si>
+  <si>
+    <t>ldap_CN=SIEM-Admin-User,OU=RoleUsers,OU=Users,OU=CORE,DC=csoc,DC=esa,DC=int</t>
+  </si>
+  <si>
+    <t>ldap_CN=SIEM-Eng-User,OU=RoleUsers,OU=Users,OU=CORE,DC=csoc,DC=esa,DC=int</t>
+  </si>
+  <si>
+    <t>Admin Admin</t>
+  </si>
+  <si>
+    <t>Operator One</t>
+  </si>
+  <si>
+    <t>SC3 SC3</t>
+  </si>
+  <si>
+    <t>Tester PEN</t>
+  </si>
+  <si>
+    <t>SIEM-Admin-User</t>
+  </si>
+  <si>
+    <t>SIEM-Eng-User</t>
+  </si>
+  <si>
+    <t>op.one@logpoint.ld</t>
+  </si>
+  <si>
+    <t>sc3@logpoint.com</t>
+  </si>
+  <si>
+    <t>pentest@logpoint.local</t>
+  </si>
+  <si>
+    <t>['62dcbda0eea1924ff18d9f6f']</t>
+  </si>
+  <si>
+    <t>{"search_help_popup": false, "hour_format": "24 Hour", "date_format": "%Y/%m/%d", "ui_theme": "default", "settings_help": true, "result_limit": 25, "shouldPrecompute": true, "search_histogram_hidden": false, "interesting_fields_disabled": false, "growl_position": "br"}</t>
+  </si>
+  <si>
+    <t>{"search_help_popup": false, "hour_format": "24 Hour", "date_format": "%Y/%m/%d", "ui_theme": "default", "growl_position": "br", "shouldPrecompute": true, "result_limit": 25, "search_histogram_hidden": false, "settings_help": null}</t>
+  </si>
+  <si>
+    <t>permission_group</t>
+  </si>
+  <si>
+    <t>object_permission</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f6f</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f70</t>
+  </si>
+  <si>
+    <t>64ff364914ffe837afabc91f</t>
+  </si>
+  <si>
+    <t>LogPoint Administrator</t>
+  </si>
+  <si>
+    <t>User Account Administrator</t>
+  </si>
+  <si>
+    <t>operator_group</t>
+  </si>
+  <si>
+    <t>This user group is highly privileged user group.
+                          The users within this group has access to the
+                          most restricted system related areas-
+                          System Settings, LogPoint License, Software Updates,
+                          Security Updates, Application Installation and
+                          Backup/Restore.</t>
+  </si>
+  <si>
+    <t>The user group has all permissions except the system
+           related permissions that the LogPoint Administrators group has.</t>
+  </si>
+  <si>
+    <t>"admin"</t>
+  </si>
+  <si>
+    <t>"operator"</t>
+  </si>
+  <si>
+    <t>{"allowed_all": true, "permitted": []}</t>
+  </si>
+  <si>
+    <t>{"allowed_all": false, "permitted": [{"logpoint_name": "siem-backend", "logpoint_ip": "127.0.0.1", "device_groups": [{"all": true, "name": "windows", "devices": [{"ips": ["10.93.8.26"], "all": true, "name": "core-ojs"}, {"ips": ["10.93.8.27"], "all": true, "name": "core-tajs"}, {"ips": ["10.93.11.11"], "all": true, "name": "core-ijs"}, {"ips": ["10.93.9.31"], "all": true, "name": "sccoe-csoc-rfsa-rf-cas"}, {"ips": ["10.93.8.247"], "all": true, "name": "TEMP-QR-SCCOE-Victim"}, {"ips": ["10.44.36.9"], "all": true, "name": "TEMP-QR-MOI-Victim"}, {"ips": ["10.93.11.10"], "all": true, "name": "core-vs1-p001esadc"}, {"ips": ["10.44.35.10"], "all": true, "name": "core-vs2-p001esadc"}, {"ips": ["10.93.8.243"], "all": true, "name": "sccoe-ar-victim"}, {"ips": ["10.44.36.12"], "all": true, "name": "moi-ar-victim"}]}, {"all": true, "name": "linux", "devices": [{"ips": ["127.0.0.1", "::1"], "all": true, "name": "localhost"}, {"ips": ["10.93.8.246"], "all": true, "name": "sccoe-TenantLogGen"}, {"ips": ["10.93.9.32"], "all": true, "name": "core-tenable.sc"}, {"ips": ["10.93.9.245"], "all": true, "name": "core-edr-log"}, {"ips": ["10.44.36.5"], "all": true, "name": "moi-sanm"}, {"ips": ["10.32.3.10"], "all": true, "name": "esrin-linux01"}, {"ips": ["10.93.9.34"], "all": true, "name": "core-deception-acm"}, {"ips": ["10.44.36.11"], "all": true, "name": "moi-TenantLogGen"}, {"ips": ["10.28.9.131"], "all": true, "name": "esait-TenantLogGen"}, {"ips": ["10.48.3.10"], "all": true, "name": "esrin-dhcp01"}, {"ips": ["10.17.20.202"], "all": true, "name": "esrin-forum01"}, {"ips": ["10.182.17.56"], "all": true, "name": "esrin-linux02"}, {"ips": ["10.182.17.146"], "all": true, "name": "esrin-linux03"}, {"ips": ["10.17.8.20"], "all": true, "name": "esrin-linux04"}, {"ips": ["10.17.8.11"], "all": true, "name": "esrin-linux05"}, {"ips": ["10.32.63.49"], "all": true, "name": "esrin-linux06"}, {"ips": ["10.182.17.48"], "all": true, "name": "esrin-linux07"}, {"ips": ["10.182.17.54"], "all": true, "name": "esrin-linux08"}, {"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}, {"ips": ["10.93.8.241"], "all": true, "name": "sccoe-TenantLogGen2"}, {"ips": ["10.28.9.132"], "all": true, "name": "esait-TenantLogGen2"}, {"ips": ["10.181.238.68"], "all": true, "name": "tia-TenantLogGen"}]}, {"all": true, "name": "firewall", "devices": [{"ips": ["10.93.10.254"], "all": true, "name": "core-csoc-prod-esec-pri-fw1"}, {"ips": ["172.18.11.218"], "all": true, "name": "esrin-palo-fw02"}, {"ips": ["172.18.11.216"], "all": true, "name": "esrin-palo-fw01"}, {"ips": ["10.21.95.33"], "all": true, "name": "esrin-cisco-firepower02"}, {"ips": ["10.181.95.33"], "all": true, "name": "esrin-cisco-firepower01"}, {"ips": ["172.18.11.217"], "all": true, "name": "esrin-palo-fw03"}, {"ips": ["172.18.11.219"], "all": true, "name": "esrin-palo-fw04"}, {"ips": ["10.21.67.1"], "all": true, "name": "esrin-checkpoint-fw01"}, {"ips": ["10.22.5.1"], "all": true, "name": "esrin-checkpoint-fw02"}]}, {"all": true, "name": "others", "devices": [{"ips": ["10.93.8.252"], "all": true, "name": "sccoe-sanm"}, {"ips": ["10.113.5.121"], "all": true, "name": "esrin-sharepoint"}, {"ips": ["10.32.12.29"], "all": true, "name": "esrin-cisco-asa01"}, {"ips": ["10.32.12.30"], "all": true, "name": "esrin-cisco-asa02"}, {"ips": ["10.17.12.186"], "all": true, "name": "esrin-pwexilbl01"}, {"ips": ["10.17.14.111"], "all": true, "name": "esrin-pwexilbl02"}, {"ips": ["10.17.14.163"], "all": true, "name": "esrin-pwexilbl03"}, {"ips": ["10.182.17.35"], "all": true, "name": "esrin-pdepilb01"}]}, {"all": true, "name": "wireless", "devices": [{"ips": ["10.101.9.194"], "all": true, "name": "esrin-cisco-wism03"}, {"ips": ["10.16.2.191"], "all": true, "name": "esrin-cisco-wism04"}, {"ips": ["10.16.2.194"], "all": true, "name": "esrin-cisco-wism05"}, {"ips": ["10.66.0.191"], "all": true, "name": "esrin-cisco-wism07"}, {"ips": ["10.66.0.194"], "all": true, "name": "esrin-cisco-wism08"}, {"ips": ["172.16.32.198"], "all": true, "name": "esrin-cisco-wism10"}, {"ips": ["172.16.32.199"], "all": true, "name": "esrin-cisco-wism11"}, {"ips": ["10.32.6.191"], "all": true, "name": "esrin-cisco-wism06"}, {"ips": ["10.82.7.191"], "all": true, "name": "esrin-cisco-wism09"}, {"ips": ["10.101.9.191"], "all": true, "name": "esrin-cisco-wism01"}, {"ips": ["10.101.9.192"], "all": true, "name": "esrin-cisco-wism02"}, {"ips": ["10.250.250.161"], "all": true, "name": "esrin-cisco-wism12"}, {"ips": ["10.250.250.191"], "all": true, "name": "esrin-cisco-wism13"}, {"ips": ["10.250.250.194"], "all": true, "name": "esrin-cisco-wism14"}, {"ips": ["10.32.6.194"], "all": true, "name": "esrin-cisco-wism15"}, {"ips": ["10.48.2.191"], "all": true, "name": "esrin-cisco-wism16"}, {"ips": ["10.48.2.194"], "all": true, "name": "esrin-cisco-wism17"}, {"ips": ["10.66.0.192"], "all": true, "name": "esrin-cisco-wism18"}, {"ips": ["10.82.7.192"], "all": true, "name": "esrin-cisco-wism19"}]}, {"all": true, "name": "identity", "devices": [{"ips": ["10.21.75.30"], "all": true, "name": "esrin-iam01"}, {"ips": ["10.21.75.21"], "all": true, "name": "esrin-iam02"}, {"ips": ["10.21.75.18"], "all": true, "name": "esrin-igidb01"}, {"ips": ["10.21.75.5"], "all": true, "name": "esrin-igidb-acc01"}, {"ips": ["10.21.75.17"], "all": true, "name": "esrin-igildap01"}, {"ips": ["10.21.75.6"], "all": true, "name": "esrin-igildap-acc01"}]}, {"all": true, "name": "LTM", "devices": [{"ips": ["10.113.5.60"], "all": true, "name": "esrin-f5-ltm01"}, {"ips": ["10.113.5.62"], "all": true, "name": "esrin-f5-ltm02"}]}, {"all": true, "name": "VPN", "devices": []}, {"all": true, "name": "PAM", "devices": [{"ips": ["10.28.2.10"], "all": true, "name": "esrin-beyondtrust-pam01"}, {"ips": ["10.28.2.11"], "all": true, "name": "esrin-beyondtrust-pam02"}, {"ips": ["10.28.2.12"], "all": true, "name": "esrin-beyondtrust-pam03"}, {"ips": ["10.28.2.9"], "all": true, "name": "esrin-beyondtrust-pam04"}]}, {"all": true, "name": "oracle", "devices": [{"ips": ["10.17.20.7"], "all": true, "name": "esrin-oracle-ssp01"}, {"ips": ["10.17.20.33"], "all": true, "name": "esrin-oracle-ssp02"}]}, {"all": true, "name": "log_proxy", "devices": [{"ips": ["10.21.58.7"], "all": true, "name": "esait-log-proxy1"}, {"ips": ["10.99.89.43"], "all": true, "name": "moi-log-proxy1"}, {"ips": ["10.99.40.26"], "all": true, "name": "moi-log-proxy2"}, {"ips": ["10.21.58.8"], "all": true, "name": "esait-log-proxy2"}, {"ips": ["10.21.58.11"], "all": true, "name": "esait-log-proxy3"}]}, {"all": true, "name": "RSA", "devices": [{"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}]}, {"all": true, "name": "Ungrouped", "devices": []}], "repos": [{"name": "default"}, {"name": "_logpoint"}, {"name": "_LogPointAlerts"}, {"name": "Repo-core-system"}, {"name": "Repo-core-system-verbose"}, {"name": "Repo-core-secu"}, {"name": "Repo-core-secu-verbose"}, {"name": "Repo-core-system-expert"}, {"name": "Repo-core-cloud"}, {"name": "Repo-moi-system"}, {"name": "Repo-moi-system-verbose"}, {"name": "Repo-moi-secu"}, {"name": "Repo-moi-secu-verbose"}, {"name": "Repo-moi-system-expert"}, {"name": "Repo-moi-cloud"}, {"name": "Repo-esait-system"}, {"name": "Repo-esait-secu"}, {"name": "Repo-esait-secu-verbose"}, {"name": "Repo-sccoe-cloud"}, {"name": "Repo-sccoe-secu"}, {"name": "Repo-sccoe-secu-verbose"}, {"name": "Repo-sccoe-system"}, {"name": "Repo-sccoe-system-expert"}, {"name": "Repo-sccoe-system-verbose"}, {"name": "Repo-esait-system-verbose"}, {"name": "Repo-tia-system"}, {"name": "Repo-tia-system-verbose"}, {"name": "Repo-tia-secu"}, {"name": "Repo-tia-secu-verbose"}], "allDeviceGroups": true, "allRepos": true}]}</t>
+  </si>
+  <si>
+    <t>settings.user</t>
+  </si>
+  <si>
+    <t>settings.assigned_to</t>
+  </si>
+  <si>
+    <t>settings.visible_to_users</t>
+  </si>
+  <si>
+    <t>settings.visible_to</t>
+  </si>
+  <si>
     <t>alert_index</t>
   </si>
   <si>
+    <t>settings.vid</t>
+  </si>
+  <si>
+    <t>settings.used_from</t>
+  </si>
+  <si>
     <t>settings.active</t>
   </si>
   <si>
+    <t>settings.flush_on_trigger</t>
+  </si>
+  <si>
     <t>settings.description</t>
   </si>
   <si>
+    <t>settings.data_privacy_request</t>
+  </si>
+  <si>
     <t>settings.time_range_seconds</t>
   </si>
   <si>
+    <t>settings.version</t>
+  </si>
+  <si>
+    <t>settings.tid</t>
+  </si>
+  <si>
     <t>settings.extra_config.query</t>
   </si>
   <si>
+    <t>settings.risk</t>
+  </si>
+  <si>
+    <t>settings.aggregate</t>
+  </si>
+  <si>
+    <t>settings.condition.condition_option</t>
+  </si>
+  <si>
+    <t>settings.condition.condition_value</t>
+  </si>
+  <si>
+    <t>settings.name</t>
+  </si>
+  <si>
+    <t>settings.notifications</t>
+  </si>
+  <si>
+    <t>settings.alertrule_id</t>
+  </si>
+  <si>
+    <t>settings.attack_tag</t>
+  </si>
+  <si>
+    <t>settings.log_source</t>
+  </si>
+  <si>
+    <t>settings.metadata</t>
+  </si>
+  <si>
+    <t>settings.is_context_template_enabled</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.vid</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.flush_on_trigger</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.extra_query_filter</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.generated_by</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.tid</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.description</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.timerange_hour</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.timerange_second</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.searchname</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.fieldsToExtract</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.success</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.query_type</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.query_filter</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.lucene_query</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.aliases</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.columns</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.grouping</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.timerange_day</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.timerange_minute</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.limit</t>
+  </si>
+  <si>
     <t>settings.repos</t>
   </si>
   <si>
-    <t>settings.vid</t>
-  </si>
-  <si>
-    <t>settings.used_from</t>
-  </si>
-  <si>
-    <t>settings.visible_to</t>
-  </si>
-  <si>
-    <t>settings.flush_on_trigger</t>
-  </si>
-  <si>
-    <t>settings.data_privacy_request</t>
-  </si>
-  <si>
-    <t>settings.version</t>
-  </si>
-  <si>
-    <t>settings.tid</t>
-  </si>
-  <si>
-    <t>settings.risk</t>
-  </si>
-  <si>
-    <t>settings.visible_to_users</t>
-  </si>
-  <si>
-    <t>settings.user</t>
-  </si>
-  <si>
-    <t>settings.aggregate</t>
-  </si>
-  <si>
-    <t>settings.condition.condition_option</t>
-  </si>
-  <si>
-    <t>settings.condition.condition_value</t>
-  </si>
-  <si>
-    <t>settings.name</t>
-  </si>
-  <si>
-    <t>settings.assigned_to</t>
-  </si>
-  <si>
-    <t>settings.notifications</t>
-  </si>
-  <si>
-    <t>settings.alertrule_id</t>
-  </si>
-  <si>
-    <t>settings.attack_tag</t>
-  </si>
-  <si>
-    <t>settings.log_source</t>
-  </si>
-  <si>
-    <t>settings.metadata</t>
-  </si>
-  <si>
-    <t>settings.is_context_template_enabled</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.vid</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.flush_on_trigger</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.extra_query_filter</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.generated_by</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.tid</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.description</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.timerange_hour</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.timerange_second</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.searchname</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.fieldsToExtract</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.success</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.query_type</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.query_filter</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.lucene_query</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.aliases</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.columns</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.grouping</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.timerange_day</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.timerange_minute</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.limit</t>
-  </si>
-  <si>
     <t>settings.throttling_enabled</t>
   </si>
   <si>
@@ -1910,52 +2047,52 @@
     <t>LP_LogPoint License Expiry Status</t>
   </si>
   <si>
+    <t>ldap_CN=PFOH Stéphan,OU=Internes,OU=PRD,OU=Users,OU=T2,DC=matmut,DC=fr</t>
+  </si>
+  <si>
+    <t>5a61fb4103a0f34af015fad6</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>ALERT_735</t>
+  </si>
+  <si>
     <t>This alert is triggered whenever LogPoint license is about to expire.</t>
   </si>
   <si>
     <t>norm_id=LogPoint label=Audit object='License checker' days_remaining=*</t>
   </si>
   <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>moreequal</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>[{"template_file": "alert_5a61fb4103a0f34af015fad6_JRIF6TDPM5IG62LOOQQEY2LDMVXHGZJAIV4HA2LSPEQFG5DBOR2XG===.tmp", "notify_email": false, "email_template": "&lt;style type=\"text/css\"&gt;\n\t.alert-table{\n\t\tborder: 1px solid #eee;\n\t\tmargin: 0px;\n\t\tpadding: 0px;\t\t\n\t}\n\t.alert-table-th{\n\t\ttext-align: left;\n\t\tborder-bottom: 2px solid #eee;\n\t\tpadding: 5px;\n\t\tcolor: #ffffff;\n\t\tbackground-color: #646883;\n\t\tfont-family: helvetica;\n\t\tfont-size: 16px;\n\t}\n\t.alert-table-td{\n\t\tborder-left: 1px solid #eee;\n\t\ttext-align: left;\n\t\tborder-bottom: 1px solid #eee;\n\t\tpadding: 5px;\n\t\tfont-family: helvetica;\n\t\tfont-size: 15px;\n\t}\n\t.even{\n\t\tbackground:#f6f6f8;\n\t}\n\n\t.odd{\n\t\tbackground:#ffffff;\n\t}\n&lt;/style&gt;\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\n\t&lt;tbody&gt;&lt;tr&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;Event Time&lt;/th&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;Object&lt;/th&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;License Expires in&lt;/th&gt;\n\t&lt;/tr&gt;\n\n\t&lt;tr&gt;\n\t\t&lt;td colspan=\"4\"&gt;\n\t\t\t{% for row in rows %}\n\t\t\t&lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\n\t\t\t\t&lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts | datetime}}&lt;/td&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.object}}&lt;/td&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.days_remaining}}&lt;/td&gt;\n\t\t\t\t&lt;/tr&gt;\n\t\t\t&lt;/tbody&gt;&lt;/table&gt;\n\t\t\t{% endfor %}\n\t\t&lt;/td&gt;\n\t&lt;/tr&gt;\n&lt;/tbody&gt;&lt;/table&gt;\n", "email_emails": [], "threshold": {}, "type": "email", "subject": "LP_LogPoint License Expiry Status"}, {"threshold_value": null, "protocol": "UDP", "severity": 4, "facility": 14, "port": 514, "threshold_option": null, "notify_syslog": true, "split_rows": true, "server": "127.0.0.1", "type": "syslog", "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_object: {{row.object}}; incident_day: {{row.days_remaining}}; incident_criteria: {{description}}.\n{% endfor %}"}]</t>
+  </si>
+  <si>
+    <t>56518575f22a82f6bfbc273851ec43ba</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>["norm_id", "label", "object", "days_remaining"]</t>
+  </si>
+  <si>
+    <t>(((norm_id:LogPoint AND label:Audit) AND object:License\ checker) AND (days_remaining:* OR _num_days_remaining:*))</t>
+  </si>
+  <si>
     <t>["127.0.0.1:5504", "10.109.234.1:5504"]</t>
-  </si>
-  <si>
-    <t>ALERT_735</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>ldap_CN=PFOH Stéphan,OU=Internes,OU=PRD,OU=Users,OU=T2,DC=matmut,DC=fr</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>moreequal</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5a61fb4103a0f34af015fad6</t>
-  </si>
-  <si>
-    <t>[{"template_file": "alert_5a61fb4103a0f34af015fad6_JRIF6TDPM5IG62LOOQQEY2LDMVXHGZJAIV4HA2LSPEQFG5DBOR2XG===.tmp", "notify_email": false, "email_template": "&lt;style type=\"text/css\"&gt;\n\t.alert-table{\n\t\tborder: 1px solid #eee;\n\t\tmargin: 0px;\n\t\tpadding: 0px;\t\t\n\t}\n\t.alert-table-th{\n\t\ttext-align: left;\n\t\tborder-bottom: 2px solid #eee;\n\t\tpadding: 5px;\n\t\tcolor: #ffffff;\n\t\tbackground-color: #646883;\n\t\tfont-family: helvetica;\n\t\tfont-size: 16px;\n\t}\n\t.alert-table-td{\n\t\tborder-left: 1px solid #eee;\n\t\ttext-align: left;\n\t\tborder-bottom: 1px solid #eee;\n\t\tpadding: 5px;\n\t\tfont-family: helvetica;\n\t\tfont-size: 15px;\n\t}\n\t.even{\n\t\tbackground:#f6f6f8;\n\t}\n\n\t.odd{\n\t\tbackground:#ffffff;\n\t}\n&lt;/style&gt;\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\n\t&lt;tbody&gt;&lt;tr&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;Event Time&lt;/th&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;Object&lt;/th&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;License Expires in&lt;/th&gt;\n\t&lt;/tr&gt;\n\n\t&lt;tr&gt;\n\t\t&lt;td colspan=\"4\"&gt;\n\t\t\t{% for row in rows %}\n\t\t\t&lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\n\t\t\t\t&lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts | datetime}}&lt;/td&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.object}}&lt;/td&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.days_remaining}}&lt;/td&gt;\n\t\t\t\t&lt;/tr&gt;\n\t\t\t&lt;/tbody&gt;&lt;/table&gt;\n\t\t\t{% endfor %}\n\t\t&lt;/td&gt;\n\t&lt;/tr&gt;\n&lt;/tbody&gt;&lt;/table&gt;\n", "email_emails": [], "threshold": {}, "type": "email", "subject": "LP_LogPoint License Expiry Status"}, {"threshold_value": null, "protocol": "UDP", "severity": 4, "facility": 14, "port": 514, "threshold_option": null, "notify_syslog": true, "split_rows": true, "server": "127.0.0.1", "type": "syslog", "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_object: {{row.object}}; incident_day: {{row.days_remaining}}; incident_criteria: {{description}}.\n{% endfor %}"}]</t>
-  </si>
-  <si>
-    <t>56518575f22a82f6bfbc273851ec43ba</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>["norm_id", "label", "object", "days_remaining"]</t>
-  </si>
-  <si>
-    <t>(((norm_id:LogPoint AND label:Audit) AND object:License\ checker) AND (days_remaining:* OR _num_days_remaining:*))</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;style type="text/css"&gt;
@@ -2559,6 +2696,326 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:59">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59">
+      <c r="A2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E2" t="s">
+        <v>674</v>
+      </c>
+      <c r="F2">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>675</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>676</v>
+      </c>
+      <c r="M2">
+        <v>300</v>
+      </c>
+      <c r="P2" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>678</v>
+      </c>
+      <c r="R2" t="s">
+        <v>679</v>
+      </c>
+      <c r="S2" t="s">
+        <v>680</v>
+      </c>
+      <c r="T2" t="s">
+        <v>681</v>
+      </c>
+      <c r="U2" t="s">
+        <v>671</v>
+      </c>
+      <c r="V2" t="s">
+        <v>682</v>
+      </c>
+      <c r="W2" t="s">
+        <v>683</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>676</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>686</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>5</v>
+      </c>
+      <c r="AV2">
+        <v>25</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>687</v>
+      </c>
+      <c r="AX2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>688</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
@@ -9053,27 +9510,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>571</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>573</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>574</v>
@@ -9082,288 +9539,214 @@
         <v>575</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>576</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>577</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>578</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D4" t="s">
+        <v>594</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>579</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D5" t="s">
+        <v>595</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>580</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>581</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="B7" t="s">
         <v>586</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="C7" t="s">
         <v>592</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>598</v>
       </c>
-      <c r="AE1" s="1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>601</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>602</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>603</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="B4" t="s">
         <v>606</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>610</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="F4" t="s">
         <v>612</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59">
-      <c r="A2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>628</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>629</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2" t="s">
-        <v>630</v>
-      </c>
-      <c r="G2" t="s">
-        <v>631</v>
-      </c>
-      <c r="I2" t="s">
-        <v>632</v>
-      </c>
-      <c r="J2" t="s">
-        <v>633</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>634</v>
-      </c>
-      <c r="P2" t="s">
-        <v>633</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>635</v>
-      </c>
-      <c r="R2" t="s">
-        <v>636</v>
-      </c>
-      <c r="S2" t="s">
-        <v>637</v>
-      </c>
-      <c r="T2" t="s">
-        <v>638</v>
-      </c>
-      <c r="U2" t="s">
-        <v>628</v>
-      </c>
-      <c r="V2" t="s">
-        <v>639</v>
-      </c>
-      <c r="W2" t="s">
-        <v>640</v>
-      </c>
-      <c r="X2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>630</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>642</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>629</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>628</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>643</v>
-      </c>
-      <c r="AN2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>630</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>644</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>633</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>633</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>633</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>5</v>
-      </c>
-      <c r="AW2">
-        <v>25</v>
-      </c>
-      <c r="AX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>645</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/lp_tenant_exporter_v2/split/tenants/esrin_config.xlsx
+++ b/lp_tenant_exporter_v2/split/tenants/esrin_config.xlsx
@@ -1870,6 +1870,9 @@
     <t>{"allowed_all": false, "permitted": [{"logpoint_name": "siem-backend", "logpoint_ip": "127.0.0.1", "device_groups": [{"all": true, "name": "windows", "devices": [{"ips": ["10.93.8.26"], "all": true, "name": "core-ojs"}, {"ips": ["10.93.8.27"], "all": true, "name": "core-tajs"}, {"ips": ["10.93.11.11"], "all": true, "name": "core-ijs"}, {"ips": ["10.93.9.31"], "all": true, "name": "sccoe-csoc-rfsa-rf-cas"}, {"ips": ["10.93.8.247"], "all": true, "name": "TEMP-QR-SCCOE-Victim"}, {"ips": ["10.44.36.9"], "all": true, "name": "TEMP-QR-MOI-Victim"}, {"ips": ["10.93.11.10"], "all": true, "name": "core-vs1-p001esadc"}, {"ips": ["10.44.35.10"], "all": true, "name": "core-vs2-p001esadc"}, {"ips": ["10.93.8.243"], "all": true, "name": "sccoe-ar-victim"}, {"ips": ["10.44.36.12"], "all": true, "name": "moi-ar-victim"}]}, {"all": true, "name": "linux", "devices": [{"ips": ["127.0.0.1", "::1"], "all": true, "name": "localhost"}, {"ips": ["10.93.8.246"], "all": true, "name": "sccoe-TenantLogGen"}, {"ips": ["10.93.9.32"], "all": true, "name": "core-tenable.sc"}, {"ips": ["10.93.9.245"], "all": true, "name": "core-edr-log"}, {"ips": ["10.44.36.5"], "all": true, "name": "moi-sanm"}, {"ips": ["10.32.3.10"], "all": true, "name": "esrin-linux01"}, {"ips": ["10.93.9.34"], "all": true, "name": "core-deception-acm"}, {"ips": ["10.44.36.11"], "all": true, "name": "moi-TenantLogGen"}, {"ips": ["10.28.9.131"], "all": true, "name": "esait-TenantLogGen"}, {"ips": ["10.48.3.10"], "all": true, "name": "esrin-dhcp01"}, {"ips": ["10.17.20.202"], "all": true, "name": "esrin-forum01"}, {"ips": ["10.182.17.56"], "all": true, "name": "esrin-linux02"}, {"ips": ["10.182.17.146"], "all": true, "name": "esrin-linux03"}, {"ips": ["10.17.8.20"], "all": true, "name": "esrin-linux04"}, {"ips": ["10.17.8.11"], "all": true, "name": "esrin-linux05"}, {"ips": ["10.32.63.49"], "all": true, "name": "esrin-linux06"}, {"ips": ["10.182.17.48"], "all": true, "name": "esrin-linux07"}, {"ips": ["10.182.17.54"], "all": true, "name": "esrin-linux08"}, {"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}, {"ips": ["10.93.8.241"], "all": true, "name": "sccoe-TenantLogGen2"}, {"ips": ["10.28.9.132"], "all": true, "name": "esait-TenantLogGen2"}, {"ips": ["10.181.238.68"], "all": true, "name": "tia-TenantLogGen"}]}, {"all": true, "name": "firewall", "devices": [{"ips": ["10.93.10.254"], "all": true, "name": "core-csoc-prod-esec-pri-fw1"}, {"ips": ["172.18.11.218"], "all": true, "name": "esrin-palo-fw02"}, {"ips": ["172.18.11.216"], "all": true, "name": "esrin-palo-fw01"}, {"ips": ["10.21.95.33"], "all": true, "name": "esrin-cisco-firepower02"}, {"ips": ["10.181.95.33"], "all": true, "name": "esrin-cisco-firepower01"}, {"ips": ["172.18.11.217"], "all": true, "name": "esrin-palo-fw03"}, {"ips": ["172.18.11.219"], "all": true, "name": "esrin-palo-fw04"}, {"ips": ["10.21.67.1"], "all": true, "name": "esrin-checkpoint-fw01"}, {"ips": ["10.22.5.1"], "all": true, "name": "esrin-checkpoint-fw02"}]}, {"all": true, "name": "others", "devices": [{"ips": ["10.93.8.252"], "all": true, "name": "sccoe-sanm"}, {"ips": ["10.113.5.121"], "all": true, "name": "esrin-sharepoint"}, {"ips": ["10.32.12.29"], "all": true, "name": "esrin-cisco-asa01"}, {"ips": ["10.32.12.30"], "all": true, "name": "esrin-cisco-asa02"}, {"ips": ["10.17.12.186"], "all": true, "name": "esrin-pwexilbl01"}, {"ips": ["10.17.14.111"], "all": true, "name": "esrin-pwexilbl02"}, {"ips": ["10.17.14.163"], "all": true, "name": "esrin-pwexilbl03"}, {"ips": ["10.182.17.35"], "all": true, "name": "esrin-pdepilb01"}]}, {"all": true, "name": "wireless", "devices": [{"ips": ["10.101.9.194"], "all": true, "name": "esrin-cisco-wism03"}, {"ips": ["10.16.2.191"], "all": true, "name": "esrin-cisco-wism04"}, {"ips": ["10.16.2.194"], "all": true, "name": "esrin-cisco-wism05"}, {"ips": ["10.66.0.191"], "all": true, "name": "esrin-cisco-wism07"}, {"ips": ["10.66.0.194"], "all": true, "name": "esrin-cisco-wism08"}, {"ips": ["172.16.32.198"], "all": true, "name": "esrin-cisco-wism10"}, {"ips": ["172.16.32.199"], "all": true, "name": "esrin-cisco-wism11"}, {"ips": ["10.32.6.191"], "all": true, "name": "esrin-cisco-wism06"}, {"ips": ["10.82.7.191"], "all": true, "name": "esrin-cisco-wism09"}, {"ips": ["10.101.9.191"], "all": true, "name": "esrin-cisco-wism01"}, {"ips": ["10.101.9.192"], "all": true, "name": "esrin-cisco-wism02"}, {"ips": ["10.250.250.161"], "all": true, "name": "esrin-cisco-wism12"}, {"ips": ["10.250.250.191"], "all": true, "name": "esrin-cisco-wism13"}, {"ips": ["10.250.250.194"], "all": true, "name": "esrin-cisco-wism14"}, {"ips": ["10.32.6.194"], "all": true, "name": "esrin-cisco-wism15"}, {"ips": ["10.48.2.191"], "all": true, "name": "esrin-cisco-wism16"}, {"ips": ["10.48.2.194"], "all": true, "name": "esrin-cisco-wism17"}, {"ips": ["10.66.0.192"], "all": true, "name": "esrin-cisco-wism18"}, {"ips": ["10.82.7.192"], "all": true, "name": "esrin-cisco-wism19"}]}, {"all": true, "name": "identity", "devices": [{"ips": ["10.21.75.30"], "all": true, "name": "esrin-iam01"}, {"ips": ["10.21.75.21"], "all": true, "name": "esrin-iam02"}, {"ips": ["10.21.75.18"], "all": true, "name": "esrin-igidb01"}, {"ips": ["10.21.75.5"], "all": true, "name": "esrin-igidb-acc01"}, {"ips": ["10.21.75.17"], "all": true, "name": "esrin-igildap01"}, {"ips": ["10.21.75.6"], "all": true, "name": "esrin-igildap-acc01"}]}, {"all": true, "name": "LTM", "devices": [{"ips": ["10.113.5.60"], "all": true, "name": "esrin-f5-ltm01"}, {"ips": ["10.113.5.62"], "all": true, "name": "esrin-f5-ltm02"}]}, {"all": true, "name": "VPN", "devices": []}, {"all": true, "name": "PAM", "devices": [{"ips": ["10.28.2.10"], "all": true, "name": "esrin-beyondtrust-pam01"}, {"ips": ["10.28.2.11"], "all": true, "name": "esrin-beyondtrust-pam02"}, {"ips": ["10.28.2.12"], "all": true, "name": "esrin-beyondtrust-pam03"}, {"ips": ["10.28.2.9"], "all": true, "name": "esrin-beyondtrust-pam04"}]}, {"all": true, "name": "oracle", "devices": [{"ips": ["10.17.20.7"], "all": true, "name": "esrin-oracle-ssp01"}, {"ips": ["10.17.20.33"], "all": true, "name": "esrin-oracle-ssp02"}]}, {"all": true, "name": "log_proxy", "devices": [{"ips": ["10.21.58.7"], "all": true, "name": "esait-log-proxy1"}, {"ips": ["10.99.89.43"], "all": true, "name": "moi-log-proxy1"}, {"ips": ["10.99.40.26"], "all": true, "name": "moi-log-proxy2"}, {"ips": ["10.21.58.8"], "all": true, "name": "esait-log-proxy2"}, {"ips": ["10.21.58.11"], "all": true, "name": "esait-log-proxy3"}]}, {"all": true, "name": "RSA", "devices": [{"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}]}, {"all": true, "name": "Ungrouped", "devices": []}], "repos": [{"name": "default"}, {"name": "_logpoint"}, {"name": "_LogPointAlerts"}, {"name": "Repo-core-system"}, {"name": "Repo-core-system-verbose"}, {"name": "Repo-core-secu"}, {"name": "Repo-core-secu-verbose"}, {"name": "Repo-core-system-expert"}, {"name": "Repo-core-cloud"}, {"name": "Repo-moi-system"}, {"name": "Repo-moi-system-verbose"}, {"name": "Repo-moi-secu"}, {"name": "Repo-moi-secu-verbose"}, {"name": "Repo-moi-system-expert"}, {"name": "Repo-moi-cloud"}, {"name": "Repo-esait-system"}, {"name": "Repo-esait-secu"}, {"name": "Repo-esait-secu-verbose"}, {"name": "Repo-sccoe-cloud"}, {"name": "Repo-sccoe-secu"}, {"name": "Repo-sccoe-secu-verbose"}, {"name": "Repo-sccoe-system"}, {"name": "Repo-sccoe-system-expert"}, {"name": "Repo-sccoe-system-verbose"}, {"name": "Repo-esait-system-verbose"}, {"name": "Repo-tia-system"}, {"name": "Repo-tia-system-verbose"}, {"name": "Repo-tia-secu"}, {"name": "Repo-tia-secu-verbose"}], "allDeviceGroups": true, "allRepos": true}]}</t>
   </si>
   <si>
+    <t>settings.repos</t>
+  </si>
+  <si>
     <t>settings.user</t>
   </si>
   <si>
@@ -2011,9 +2014,6 @@
     <t>settings.livesearch_data.limit</t>
   </si>
   <si>
-    <t>settings.repos</t>
-  </si>
-  <si>
     <t>settings.throttling_enabled</t>
   </si>
   <si>
@@ -2047,6 +2047,9 @@
     <t>LP_LogPoint License Expiry Status</t>
   </si>
   <si>
+    <t>["127.0.0.1:5504", "10.109.234.1:5504"]</t>
+  </si>
+  <si>
     <t>ldap_CN=PFOH Stéphan,OU=Internes,OU=PRD,OU=Users,OU=T2,DC=matmut,DC=fr</t>
   </si>
   <si>
@@ -2090,9 +2093,6 @@
   </si>
   <si>
     <t>(((norm_id:LogPoint AND label:Audit) AND object:License\ checker) AND (days_remaining:* OR _num_days_remaining:*))</t>
-  </si>
-  <si>
-    <t>["127.0.0.1:5504", "10.109.234.1:5504"]</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;style type="text/css"&gt;
@@ -2897,28 +2897,28 @@
         <v>674</v>
       </c>
       <c r="E2" t="s">
-        <v>674</v>
-      </c>
-      <c r="F2">
+        <v>675</v>
+      </c>
+      <c r="F2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G2">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>675</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>676</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>676</v>
-      </c>
-      <c r="M2">
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>677</v>
+      </c>
+      <c r="N2">
         <v>300</v>
-      </c>
-      <c r="P2" t="s">
-        <v>677</v>
       </c>
       <c r="Q2" t="s">
         <v>678</v>
@@ -2933,73 +2933,73 @@
         <v>681</v>
       </c>
       <c r="U2" t="s">
+        <v>682</v>
+      </c>
+      <c r="V2" t="s">
         <v>671</v>
-      </c>
-      <c r="V2" t="s">
-        <v>682</v>
       </c>
       <c r="W2" t="s">
         <v>683</v>
       </c>
-      <c r="AA2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="X2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AI2" t="s">
         <v>677</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>684</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>676</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
         <v>671</v>
       </c>
-      <c r="AL2" t="s">
-        <v>685</v>
-      </c>
-      <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AM2" t="s">
+        <v>686</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" t="s">
-        <v>677</v>
-      </c>
       <c r="AP2" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="AQ2" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="AR2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AS2" t="s">
-        <v>674</v>
-      </c>
-      <c r="AT2">
+        <v>675</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AU2">
         <v>0</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>5</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>25</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>687</v>
       </c>
       <c r="AX2" t="b">
         <v>0</v>
